--- a/ramsey.xlsx
+++ b/ramsey.xlsx
@@ -1,16 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/bc_f19_econ/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB75195-3994-DF48-8C83-C3DB6C0D9EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="140" windowWidth="23080" windowHeight="15700"/>
+    <workbookView xWindow="3340" yWindow="460" windowWidth="23080" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$17:$A$118</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$16</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$17:$C$118</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$17:$B$118</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$16</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$17:$C$118</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$17:$A$118</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$16</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$17:$B$118</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -84,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +157,2213 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Discrete</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c(t)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$17:$A$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="1">
+                  <c:v>0.63200640654607898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70935920930779695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77498130480014193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83066089983731173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87792106851782914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91805025034272125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95213657303166932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98109911609148448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0057147476418764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0266407135542914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0444335383796541</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0595648282927566</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0724344999076456</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0833818749741673</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0926950035765184</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1006185131583286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1073602273297984</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1130967552314486</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1179782173225705</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1221322451567397</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1256673696449917</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1286758934209897</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1312363273780728</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1334154585949683</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1352701061953661</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1368486127941229</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1381921117497811</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1393356042130718</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1403088747273784</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.141137269731763</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1418423596027942</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1424425017352184</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1429533195102564</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1433881097567304</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1437581894099387</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1440731904625221</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1443413109354614</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1445695284380888</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1447637819017982</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1449291262362429</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1450698639466519</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1451896571473625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1452916228936656</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1453784143178811</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1454522896847006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1455151711653848</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1455686948621064</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.1456142533854874</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1456530320942064</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1456860399403446</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1457141357235729</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1457380504376657</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.145758406291048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1457757328964606</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1457904810511159</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1458030344659824</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.145813719749446</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.1458228149051588</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1458305565652052</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1458371461468082</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1458427550927763</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.1458475293320487</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1458515930764011</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.1458550520520987</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1458579962505802</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1458605022697355</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.145862635306697</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.1458644508539848</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.1458659961431317</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1458673113733433</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.1458684307571503</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.1458693834102525</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1458701941086862</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1458708839330083</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.1458714708162303</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.1458719700097395</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.1458723944792977</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1458727552413841</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1458730616485899</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.1458733216314321</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.1458735419028123</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.145873728130351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1458738850809809</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1458740167414274</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1458741264175534</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.1458742168149527</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1458742901026451</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1458743479612252</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1458743916163461</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1458744218579391</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1458744390451028</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1458744430960754</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.1458744334621509</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1458744090837796</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1458743683263661</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1458743088924361</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.1458742277058356</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.1458741207624104</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.1458739829401474</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.1458738077599535</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.1458735870860521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EEA-7F42-AFBA-9A3BDE5967AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k(t)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$17:$A$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2679935934539208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5133402687376498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7335381766283229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9286030895753057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0998461561452064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2491964536140241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3788196180343126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4909036469527965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5875417004196803</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6706721084536094</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7420522912960328</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8032526318777697</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8556617996967333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9004983059188607</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9388250820054598</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9715651276232502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9995170620865084</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0233699119053963</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0437167816151982</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0610672521000284</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0758584719298172</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0884649796112855</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0992073354821432</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1083596625947161</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.116156203782571</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.122797002073388</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1284528069136979</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1332693014010315</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.137370737228629</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1408630551939529</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1438365604319589</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1463682133159914</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1485235893883208</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1503585548108939</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1519206976779319</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1532505500828556</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1543826310390886</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.1553463361632712</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.156166696381947</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1568650247603047</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1574594678180259</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.157965475340438</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1583962006653241</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.158762841683969</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1590749313010749</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.15934058481837</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1595667106114211</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1597591895325539</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1599230276724475</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.1600624864294939</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1601811932526074</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1602822359253948</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.1603682428350854</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.160441451307598</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1605037657815922</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1605568073313628</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1606019558243794</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1606403858083749</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1606730970602688</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.1607009405907278</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.1607246407802019</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1607448142218302</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.160761985761086</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.1607766021492019</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.1607890436654102</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.1607996340102518</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.1608086487272686</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1608163223721375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.1608228546157506</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1608284154400303</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.1608331495616842</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.1608371801990387</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1608406122800323</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1608435351749113</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.1608460250248545</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.1608481467272638</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.1608499556295637</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.1608514989758136</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.1608528171440806</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1608539447071258</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.1608549113444626</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.1608557426300901</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.1608564607170937</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.1608570849377995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.1608576323361697</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.1608581181476314</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.160858556240461</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.1608589595322547</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.1608593403948304</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.1608597110612253</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.1608600840492223</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.1608604726171965</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.1608608912700404</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.1608613563356096</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.1608618866357139</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.1608625042802547</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.1608632356189643</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.1608641123925465</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.1608651731342712</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.1608664648845486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0EEA-7F42-AFBA-9A3BDE5967AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1403512640"/>
+        <c:axId val="1403021232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1403512640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1403021232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1403021232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1403512640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>191462</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4763462</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>153940</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6516B57E-3F61-2449-B73B-1F5759C7E038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,22 +2650,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C118"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="98.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -444,7 +2679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -455,7 +2690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -466,7 +2701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -478,7 +2713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -490,7 +2725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -501,7 +2736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -512,7 +2747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -524,7 +2759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -535,7 +2770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -548,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>A18+1</f>
         <v>1</v>
@@ -562,7 +2797,7 @@
         <v>1.2679935934539208</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" ref="A20:A83" si="0">A19+1</f>
         <v>2</v>
@@ -576,7 +2811,7 @@
         <v>1.5133402687376498</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -590,7 +2825,7 @@
         <v>1.7335381766283229</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -604,7 +2839,7 @@
         <v>1.9286030895753057</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -618,7 +2853,7 @@
         <v>2.0998461561452064</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -632,7 +2867,7 @@
         <v>2.2491964536140241</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -646,7 +2881,7 @@
         <v>2.3788196180343126</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -660,7 +2895,7 @@
         <v>2.4909036469527965</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -674,7 +2909,7 @@
         <v>2.5875417004196803</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -688,7 +2923,7 @@
         <v>2.6706721084536094</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -702,7 +2937,7 @@
         <v>2.7420522912960328</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -716,7 +2951,7 @@
         <v>2.8032526318777697</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -730,7 +2965,7 @@
         <v>2.8556617996967333</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -744,7 +2979,7 @@
         <v>2.9004983059188607</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -758,7 +2993,7 @@
         <v>2.9388250820054598</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -772,7 +3007,7 @@
         <v>2.9715651276232502</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -786,7 +3021,7 @@
         <v>2.9995170620865084</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -800,7 +3035,7 @@
         <v>3.0233699119053963</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -814,7 +3049,7 @@
         <v>3.0437167816151982</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -828,7 +3063,7 @@
         <v>3.0610672521000284</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -842,7 +3077,7 @@
         <v>3.0758584719298172</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -856,7 +3091,7 @@
         <v>3.0884649796112855</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -870,7 +3105,7 @@
         <v>3.0992073354821432</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -884,7 +3119,7 @@
         <v>3.1083596625947161</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -898,7 +3133,7 @@
         <v>3.116156203782571</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -912,7 +3147,7 @@
         <v>3.122797002073388</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -926,7 +3161,7 @@
         <v>3.1284528069136979</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -940,7 +3175,7 @@
         <v>3.1332693014010315</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -954,7 +3189,7 @@
         <v>3.137370737228629</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -968,7 +3203,7 @@
         <v>3.1408630551939529</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -982,7 +3217,7 @@
         <v>3.1438365604319589</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -996,7 +3231,7 @@
         <v>3.1463682133159914</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1010,7 +3245,7 @@
         <v>3.1485235893883208</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1024,7 +3259,7 @@
         <v>3.1503585548108939</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1038,7 +3273,7 @@
         <v>3.1519206976779319</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1052,7 +3287,7 @@
         <v>3.1532505500828556</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1066,7 +3301,7 @@
         <v>3.1543826310390886</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1080,7 +3315,7 @@
         <v>3.1553463361632712</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1094,7 +3329,7 @@
         <v>3.156166696381947</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1108,7 +3343,7 @@
         <v>3.1568650247603047</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1122,7 +3357,7 @@
         <v>3.1574594678180259</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1136,7 +3371,7 @@
         <v>3.157965475340438</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1150,7 +3385,7 @@
         <v>3.1583962006653241</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1164,7 +3399,7 @@
         <v>3.158762841683969</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1178,7 +3413,7 @@
         <v>3.1590749313010749</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1192,7 +3427,7 @@
         <v>3.15934058481837</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1206,7 +3441,7 @@
         <v>3.1595667106114211</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1220,7 +3455,7 @@
         <v>3.1597591895325539</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1234,7 +3469,7 @@
         <v>3.1599230276724475</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1248,7 +3483,7 @@
         <v>3.1600624864294939</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1262,7 +3497,7 @@
         <v>3.1601811932526074</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1276,7 +3511,7 @@
         <v>3.1602822359253948</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1290,7 +3525,7 @@
         <v>3.1603682428350854</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1304,7 +3539,7 @@
         <v>3.160441451307598</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1318,7 +3553,7 @@
         <v>3.1605037657815922</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1332,7 +3567,7 @@
         <v>3.1605568073313628</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1346,7 +3581,7 @@
         <v>3.1606019558243794</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1360,7 +3595,7 @@
         <v>3.1606403858083749</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1374,7 +3609,7 @@
         <v>3.1606730970602688</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1388,7 +3623,7 @@
         <v>3.1607009405907278</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1402,7 +3637,7 @@
         <v>3.1607246407802019</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1416,7 +3651,7 @@
         <v>3.1607448142218302</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1430,7 +3665,7 @@
         <v>3.160761985761086</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1444,7 +3679,7 @@
         <v>3.1607766021492019</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1458,7 +3693,7 @@
         <v>3.1607890436654102</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" ref="A84:A118" si="3">A83+1</f>
         <v>66</v>
@@ -1472,7 +3707,7 @@
         <v>3.1607996340102518</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -1486,7 +3721,7 @@
         <v>3.1608086487272686</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -1500,7 +3735,7 @@
         <v>3.1608163223721375</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -1514,7 +3749,7 @@
         <v>3.1608228546157506</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -1528,7 +3763,7 @@
         <v>3.1608284154400303</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -1542,7 +3777,7 @@
         <v>3.1608331495616842</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -1556,7 +3791,7 @@
         <v>3.1608371801990387</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -1570,7 +3805,7 @@
         <v>3.1608406122800323</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -1584,7 +3819,7 @@
         <v>3.1608435351749113</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -1598,7 +3833,7 @@
         <v>3.1608460250248545</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -1612,7 +3847,7 @@
         <v>3.1608481467272638</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -1626,7 +3861,7 @@
         <v>3.1608499556295637</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -1640,7 +3875,7 @@
         <v>3.1608514989758136</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -1654,7 +3889,7 @@
         <v>3.1608528171440806</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -1668,7 +3903,7 @@
         <v>3.1608539447071258</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -1682,7 +3917,7 @@
         <v>3.1608549113444626</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -1696,7 +3931,7 @@
         <v>3.1608557426300901</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -1710,7 +3945,7 @@
         <v>3.1608564607170937</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -1724,7 +3959,7 @@
         <v>3.1608570849377995</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -1738,7 +3973,7 @@
         <v>3.1608576323361697</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -1752,7 +3987,7 @@
         <v>3.1608581181476314</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -1766,7 +4001,7 @@
         <v>3.160858556240461</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -1780,7 +4015,7 @@
         <v>3.1608589595322547</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -1794,7 +4029,7 @@
         <v>3.1608593403948304</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -1808,7 +4043,7 @@
         <v>3.1608597110612253</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -1822,7 +4057,7 @@
         <v>3.1608600840492223</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -1836,7 +4071,7 @@
         <v>3.1608604726171965</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -1850,7 +4085,7 @@
         <v>3.1608608912700404</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -1864,7 +4099,7 @@
         <v>3.1608613563356096</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -1878,7 +4113,7 @@
         <v>3.1608618866357139</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -1892,7 +4127,7 @@
         <v>3.1608625042802547</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -1906,7 +4141,7 @@
         <v>3.1608632356189643</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -1920,7 +4155,7 @@
         <v>3.1608641123925465</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -1934,7 +4169,7 @@
         <v>3.1608651731342712</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -1951,6 +4186,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
